--- a/Code/Results/Cases/Case_4_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.58316764512037</v>
+        <v>18.79702060518519</v>
       </c>
       <c r="C2">
-        <v>16.27502084594181</v>
+        <v>9.357277552987691</v>
       </c>
       <c r="D2">
-        <v>7.183502912790598</v>
+        <v>6.004291376523517</v>
       </c>
       <c r="E2">
-        <v>5.980172134849429</v>
+        <v>10.04258830318587</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.38632870262929</v>
+        <v>44.88299066337746</v>
       </c>
       <c r="H2">
-        <v>13.36404119479362</v>
+        <v>17.80506267166255</v>
       </c>
       <c r="I2">
-        <v>20.35490273797658</v>
+        <v>26.92753150184702</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.644699685703579</v>
+        <v>10.26233251727938</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.85758531535107</v>
+        <v>18.27042250293245</v>
       </c>
       <c r="C3">
-        <v>15.20792456872642</v>
+        <v>8.798642518931992</v>
       </c>
       <c r="D3">
-        <v>6.669506724916266</v>
+        <v>5.890071163456551</v>
       </c>
       <c r="E3">
-        <v>6.029606425939278</v>
+        <v>10.06847501070571</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.11468108123003</v>
+        <v>44.50800301915827</v>
       </c>
       <c r="H3">
-        <v>13.05652832110647</v>
+        <v>17.8151023923383</v>
       </c>
       <c r="I3">
-        <v>20.00734093340342</v>
+        <v>26.97067776190817</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.363238500711557</v>
+        <v>10.23979208233152</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.74149642263998</v>
+        <v>17.94379365775438</v>
       </c>
       <c r="C4">
-        <v>14.52012192986254</v>
+        <v>8.435530188386023</v>
       </c>
       <c r="D4">
-        <v>6.338149454046092</v>
+        <v>5.820771634417095</v>
       </c>
       <c r="E4">
-        <v>6.062152613945922</v>
+        <v>10.08540831645012</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.73037162325161</v>
+        <v>44.29433128452798</v>
       </c>
       <c r="H4">
-        <v>12.88027999833213</v>
+        <v>17.8259964289664</v>
       </c>
       <c r="I4">
-        <v>19.81854912448857</v>
+        <v>27.00486733542242</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.190899431170449</v>
+        <v>10.2280645106213</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.27227542250177</v>
+        <v>17.81007815438944</v>
       </c>
       <c r="C5">
-        <v>14.23155676861071</v>
+        <v>8.282527720231753</v>
       </c>
       <c r="D5">
-        <v>6.207700264799471</v>
+        <v>5.792782341263018</v>
       </c>
       <c r="E5">
-        <v>6.075955966532136</v>
+        <v>10.09257036611906</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.16941362662966</v>
+        <v>44.21150149681134</v>
       </c>
       <c r="H5">
-        <v>12.81154881183619</v>
+        <v>17.8316205163199</v>
       </c>
       <c r="I5">
-        <v>19.7475570174196</v>
+        <v>27.02072409928497</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.120862197605073</v>
+        <v>10.22381939001256</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.19348654532062</v>
+        <v>17.78784442917313</v>
       </c>
       <c r="C6">
-        <v>14.18313860983169</v>
+        <v>8.256818809423564</v>
       </c>
       <c r="D6">
-        <v>6.187989375159202</v>
+        <v>5.788151104169619</v>
       </c>
       <c r="E6">
-        <v>6.078280346632252</v>
+        <v>10.09377542979803</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.07647507839356</v>
+        <v>44.19800596628582</v>
       </c>
       <c r="H6">
-        <v>12.80032066581413</v>
+        <v>17.83262579577386</v>
       </c>
       <c r="I6">
-        <v>19.73612027148462</v>
+        <v>27.0234729731628</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.109246461622975</v>
+        <v>10.2231468133556</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.73522690137047</v>
+        <v>17.94199250468943</v>
       </c>
       <c r="C7">
-        <v>14.5162638599479</v>
+        <v>8.433487075327289</v>
       </c>
       <c r="D7">
-        <v>6.336290428999623</v>
+        <v>5.820393090479529</v>
       </c>
       <c r="E7">
-        <v>6.062336596023258</v>
+        <v>10.08550384666888</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.7227927882391</v>
+        <v>44.29319694015868</v>
       </c>
       <c r="H7">
-        <v>12.87934064235221</v>
+        <v>17.82606748735831</v>
       </c>
       <c r="I7">
-        <v>19.81756797558008</v>
+        <v>27.00507340994318</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.189954004080122</v>
+        <v>10.2280050941168</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.99981670134958</v>
+        <v>18.61626008150546</v>
       </c>
       <c r="C8">
-        <v>15.91379716891761</v>
+        <v>9.16884611471629</v>
       </c>
       <c r="D8">
-        <v>7.009506531186611</v>
+        <v>5.964760456301621</v>
       </c>
       <c r="E8">
-        <v>5.996754885060025</v>
+        <v>10.05129867618786</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.60116433142329</v>
+        <v>44.75030409036246</v>
       </c>
       <c r="H8">
-        <v>13.25536276768694</v>
+        <v>17.80754014815012</v>
       </c>
       <c r="I8">
-        <v>20.22980990997361</v>
+        <v>26.94080408797524</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.547592420493424</v>
+        <v>10.2541239691651</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.00058647621142</v>
+        <v>19.90344368590331</v>
       </c>
       <c r="C9">
-        <v>18.40037308431474</v>
+        <v>10.45063307626951</v>
       </c>
       <c r="D9">
-        <v>8.207886755123049</v>
+        <v>6.25265216081317</v>
       </c>
       <c r="E9">
-        <v>5.886108750512614</v>
+        <v>9.992447160648329</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.31257933798157</v>
+        <v>45.77435256021106</v>
       </c>
       <c r="H9">
-        <v>14.0954375481584</v>
+        <v>17.80891445770826</v>
       </c>
       <c r="I9">
-        <v>21.24408296138609</v>
+        <v>26.87632236317329</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.250140826810934</v>
+        <v>10.32196151463589</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.68508257188736</v>
+        <v>20.81680350981256</v>
       </c>
       <c r="C10">
-        <v>20.08036505372116</v>
+        <v>11.29418003057665</v>
       </c>
       <c r="D10">
-        <v>9.019037498070402</v>
+        <v>6.464702499936552</v>
       </c>
       <c r="E10">
-        <v>5.816644750871913</v>
+        <v>9.954198859292001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.53865562164947</v>
+        <v>46.59878187693874</v>
       </c>
       <c r="H10">
-        <v>14.77966992554227</v>
+        <v>17.83311502538452</v>
       </c>
       <c r="I10">
-        <v>22.12903085351429</v>
+        <v>26.86706312488953</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.764557809654676</v>
+        <v>10.3817150015959</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.85431988635811</v>
+        <v>21.22326111845021</v>
       </c>
       <c r="C11">
-        <v>20.81489761928204</v>
+        <v>11.65660391350637</v>
       </c>
       <c r="D11">
-        <v>9.374232019530051</v>
+        <v>6.560804253061339</v>
       </c>
       <c r="E11">
-        <v>5.787843293619198</v>
+        <v>9.937877201427371</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.46876514144081</v>
+        <v>46.98809545913478</v>
       </c>
       <c r="H11">
-        <v>15.10665267273893</v>
+        <v>17.84918907721053</v>
       </c>
       <c r="I11">
-        <v>22.56510958010445</v>
+        <v>26.87123460581167</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.997978079807814</v>
+        <v>10.41099529284691</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.28991877910998</v>
+        <v>21.37572717692166</v>
       </c>
       <c r="C12">
-        <v>21.08898508143693</v>
+        <v>11.79078286462864</v>
       </c>
       <c r="D12">
-        <v>9.506864958823137</v>
+        <v>6.597105547934759</v>
       </c>
       <c r="E12">
-        <v>5.777362055826563</v>
+        <v>9.931851220507282</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>58.20107065791634</v>
+        <v>47.13744605004199</v>
       </c>
       <c r="H12">
-        <v>15.23285132325502</v>
+        <v>17.85600531918581</v>
       </c>
       <c r="I12">
-        <v>22.7353392097147</v>
+        <v>26.87402687707463</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.086286450475896</v>
+        <v>10.42237925375544</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.19641824146225</v>
+        <v>21.34295766080341</v>
       </c>
       <c r="C13">
-        <v>21.0301325708806</v>
+        <v>11.76202121221009</v>
       </c>
       <c r="D13">
-        <v>9.478381374895701</v>
+        <v>6.589292024950765</v>
       </c>
       <c r="E13">
-        <v>5.779600065820421</v>
+        <v>9.933142148629139</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.04328549355866</v>
+        <v>47.10519713813672</v>
       </c>
       <c r="H13">
-        <v>15.20556431444029</v>
+        <v>17.85450487396097</v>
       </c>
       <c r="I13">
-        <v>22.69844583873068</v>
+        <v>26.87337147852489</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.067271117157798</v>
+        <v>10.41991443562365</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.89029861500595</v>
+        <v>21.23583448250066</v>
       </c>
       <c r="C14">
-        <v>20.8375271159303</v>
+        <v>11.66770426952293</v>
       </c>
       <c r="D14">
-        <v>9.385180624191241</v>
+        <v>6.563792806705206</v>
       </c>
       <c r="E14">
-        <v>5.786972330690034</v>
+        <v>9.93737834205451</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.5289814889279</v>
+        <v>47.00034476568958</v>
       </c>
       <c r="H14">
-        <v>15.11698670513062</v>
+        <v>17.84973523339185</v>
       </c>
       <c r="I14">
-        <v>22.57901065139811</v>
+        <v>26.87143998818945</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.005244845331436</v>
+        <v>10.41192595617859</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.70186792885639</v>
+        <v>21.17002527672738</v>
       </c>
       <c r="C15">
-        <v>20.71902811095839</v>
+        <v>11.60953359295934</v>
       </c>
       <c r="D15">
-        <v>9.327852328144234</v>
+        <v>6.548160923915132</v>
       </c>
       <c r="E15">
-        <v>5.79154416963871</v>
+        <v>9.939993267729067</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.21415242813921</v>
+        <v>46.93636663469187</v>
       </c>
       <c r="H15">
-        <v>15.06304386530974</v>
+        <v>17.84690868968113</v>
       </c>
       <c r="I15">
-        <v>22.50652551753638</v>
+        <v>26.87041500546374</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.967241550739628</v>
+        <v>10.40707117731037</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.60765003141623</v>
+        <v>20.79004547892821</v>
       </c>
       <c r="C16">
-        <v>20.03178096041868</v>
+        <v>11.27006601169984</v>
       </c>
       <c r="D16">
-        <v>8.995556356060508</v>
+        <v>6.458411431404411</v>
       </c>
       <c r="E16">
-        <v>5.81858518372419</v>
+        <v>9.955287178594457</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>55.4126948070966</v>
+        <v>46.57361585367653</v>
       </c>
       <c r="H16">
-        <v>14.75862660299132</v>
+        <v>17.83216657339867</v>
       </c>
       <c r="I16">
-        <v>22.10122950785952</v>
+        <v>26.86695983671745</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.749291131434919</v>
+        <v>10.37984321980903</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.92328286796099</v>
+        <v>20.55451393074309</v>
       </c>
       <c r="C17">
-        <v>19.60270762003876</v>
+        <v>11.05635567635702</v>
       </c>
       <c r="D17">
-        <v>8.788245126381211</v>
+        <v>6.403232626592005</v>
       </c>
       <c r="E17">
-        <v>5.835905941053066</v>
+        <v>9.964945307987067</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.30968063838871</v>
+        <v>46.3546477690637</v>
       </c>
       <c r="H17">
-        <v>14.57597864409222</v>
+        <v>17.82442100517164</v>
       </c>
       <c r="I17">
-        <v>21.86136586193375</v>
+        <v>26.8669928054689</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.615430199317633</v>
+        <v>10.36367330951935</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.52474276708114</v>
+        <v>20.41820019289264</v>
       </c>
       <c r="C18">
-        <v>19.35310601789864</v>
+        <v>10.93142909289487</v>
       </c>
       <c r="D18">
-        <v>8.667698604099598</v>
+        <v>6.371463445320893</v>
       </c>
       <c r="E18">
-        <v>5.846130205366975</v>
+        <v>9.970601862630305</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.67594525955172</v>
+        <v>46.23005483521194</v>
       </c>
       <c r="H18">
-        <v>14.47239595311378</v>
+        <v>17.82044269914052</v>
       </c>
       <c r="I18">
-        <v>21.72653910708824</v>
+        <v>26.86780051193898</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.53838014034873</v>
+        <v>10.35457065058314</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.38895185165794</v>
+        <v>20.37190690157765</v>
       </c>
       <c r="C19">
-        <v>19.26810674134416</v>
+        <v>10.88878656457537</v>
       </c>
       <c r="D19">
-        <v>8.626655970586333</v>
+        <v>6.360702687702775</v>
       </c>
       <c r="E19">
-        <v>5.849636286689</v>
+        <v>9.972534508713494</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.4614852709528</v>
+        <v>46.18810575735133</v>
       </c>
       <c r="H19">
-        <v>14.43757422280934</v>
+        <v>17.81917755065855</v>
       </c>
       <c r="I19">
-        <v>21.68141975047765</v>
+        <v>26.86820922173289</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.512282788345653</v>
+        <v>10.35152278937593</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.99664100661857</v>
+        <v>20.5796749754851</v>
       </c>
       <c r="C20">
-        <v>19.64867262089034</v>
+        <v>11.07931312458795</v>
       </c>
       <c r="D20">
-        <v>8.810448207859771</v>
+        <v>6.409110079330377</v>
       </c>
       <c r="E20">
-        <v>5.834034863339827</v>
+        <v>9.96390668566416</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.42702538524916</v>
+        <v>46.37781830286102</v>
       </c>
       <c r="H20">
-        <v>14.59526876252877</v>
+        <v>17.8251961837295</v>
       </c>
       <c r="I20">
-        <v>21.88657322154057</v>
+        <v>26.86690760927181</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.629685843753197</v>
+        <v>10.36537418673414</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.98040524829893</v>
+        <v>21.26733966274397</v>
       </c>
       <c r="C21">
-        <v>20.89420850400439</v>
+        <v>11.69549055103409</v>
       </c>
       <c r="D21">
-        <v>9.412605769079734</v>
+        <v>6.571285294347226</v>
       </c>
       <c r="E21">
-        <v>5.784795178264773</v>
+        <v>9.936129873781606</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.68000314555925</v>
+        <v>47.03109121249808</v>
       </c>
       <c r="H21">
-        <v>15.14293851659312</v>
+        <v>17.8511163940686</v>
       </c>
       <c r="I21">
-        <v>22.61395100358271</v>
+        <v>26.87197435242658</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.023465605113364</v>
+        <v>10.41426437515157</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.23530903963589</v>
+        <v>21.70825264988551</v>
       </c>
       <c r="C22">
-        <v>21.68466814642482</v>
+        <v>12.08034629106341</v>
       </c>
       <c r="D22">
-        <v>9.795304329967312</v>
+        <v>6.676733061592759</v>
       </c>
       <c r="E22">
-        <v>5.755105908115459</v>
+        <v>9.918877564378137</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.81455031704309</v>
+        <v>47.46920713869386</v>
       </c>
       <c r="H22">
-        <v>15.51480378866923</v>
+        <v>17.8723078597567</v>
       </c>
       <c r="I22">
-        <v>23.11919005924541</v>
+        <v>26.88235636965407</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.280355020891641</v>
+        <v>10.44794026379009</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.56923968119817</v>
+        <v>21.4737546661529</v>
       </c>
       <c r="C23">
-        <v>21.26486511382139</v>
+        <v>11.87657392640429</v>
       </c>
       <c r="D23">
-        <v>9.592002399258037</v>
+        <v>6.620515501637493</v>
       </c>
       <c r="E23">
-        <v>5.770715211872982</v>
+        <v>9.928003059617046</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.67436460829975</v>
+        <v>47.23439793585724</v>
       </c>
       <c r="H23">
-        <v>15.31501192664618</v>
+        <v>17.86060847017551</v>
       </c>
       <c r="I23">
-        <v>22.84670302217814</v>
+        <v>26.87616627122978</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.143285645434553</v>
+        <v>10.42981106584231</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.96349166364564</v>
+        <v>20.56830246975201</v>
       </c>
       <c r="C24">
-        <v>19.62790095947361</v>
+        <v>11.06894048393372</v>
       </c>
       <c r="D24">
-        <v>8.800414440857878</v>
+        <v>6.406453023761191</v>
       </c>
       <c r="E24">
-        <v>5.834879949700558</v>
+        <v>9.96437592295862</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.37397259381144</v>
+        <v>46.36733886214562</v>
       </c>
       <c r="H24">
-        <v>14.58654327282528</v>
+        <v>17.82484424692748</v>
       </c>
       <c r="I24">
-        <v>21.87516741982638</v>
+        <v>26.866943670234</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.623241152211335</v>
+        <v>10.3646046165901</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.96407370312121</v>
+        <v>19.56016632932303</v>
       </c>
       <c r="C25">
-        <v>17.75413616055328</v>
+        <v>10.12110169025678</v>
       </c>
       <c r="D25">
-        <v>7.896247294809235</v>
+        <v>6.174507204825712</v>
       </c>
       <c r="E25">
-        <v>5.914034857832767</v>
+        <v>10.00749005820099</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.76202485805116</v>
+        <v>45.48421609408025</v>
       </c>
       <c r="H25">
-        <v>13.85674620544682</v>
+        <v>17.80448205327568</v>
       </c>
       <c r="I25">
-        <v>20.94617999322746</v>
+        <v>26.88711210019193</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.060261143350161</v>
+        <v>10.30185120654788</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.79702060518519</v>
+        <v>24.58316764512036</v>
       </c>
       <c r="C2">
-        <v>9.357277552987691</v>
+        <v>16.27502084594168</v>
       </c>
       <c r="D2">
-        <v>6.004291376523517</v>
+        <v>7.183502912790693</v>
       </c>
       <c r="E2">
-        <v>10.04258830318587</v>
+        <v>5.980172134849308</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>44.88299066337746</v>
+        <v>46.38632870262954</v>
       </c>
       <c r="H2">
-        <v>17.80506267166255</v>
+        <v>13.36404119479363</v>
       </c>
       <c r="I2">
-        <v>26.92753150184702</v>
+        <v>20.35490273797667</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.26233251727938</v>
+        <v>7.644699685703586</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.27042250293245</v>
+        <v>22.85758531535101</v>
       </c>
       <c r="C3">
-        <v>8.798642518931992</v>
+        <v>15.20792456872641</v>
       </c>
       <c r="D3">
-        <v>5.890071163456551</v>
+        <v>6.669506724916302</v>
       </c>
       <c r="E3">
-        <v>10.06847501070571</v>
+        <v>6.029606425939347</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.50800301915827</v>
+        <v>44.11468108123009</v>
       </c>
       <c r="H3">
-        <v>17.8151023923383</v>
+        <v>13.05652832110653</v>
       </c>
       <c r="I3">
-        <v>26.97067776190817</v>
+        <v>20.00734093340347</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.23979208233152</v>
+        <v>7.363238500711594</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.94379365775438</v>
+        <v>21.74149642263996</v>
       </c>
       <c r="C4">
-        <v>8.435530188386023</v>
+        <v>14.52012192986215</v>
       </c>
       <c r="D4">
-        <v>5.820771634417095</v>
+        <v>6.338149454046031</v>
       </c>
       <c r="E4">
-        <v>10.08540831645012</v>
+        <v>6.062152613945798</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.29433128452798</v>
+        <v>42.73037162325195</v>
       </c>
       <c r="H4">
-        <v>17.8259964289664</v>
+        <v>12.88027999833219</v>
       </c>
       <c r="I4">
-        <v>27.00486733542242</v>
+        <v>19.81854912448866</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.2280645106213</v>
+        <v>7.190899431170461</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.81007815438944</v>
+        <v>21.27227542250184</v>
       </c>
       <c r="C5">
-        <v>8.282527720231753</v>
+        <v>14.23155676861068</v>
       </c>
       <c r="D5">
-        <v>5.792782341263018</v>
+        <v>6.207700264799497</v>
       </c>
       <c r="E5">
-        <v>10.09257036611906</v>
+        <v>6.075955966532014</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.21150149681134</v>
+        <v>42.16941362662961</v>
       </c>
       <c r="H5">
-        <v>17.8316205163199</v>
+        <v>12.81154881183607</v>
       </c>
       <c r="I5">
-        <v>27.02072409928497</v>
+        <v>19.74755701741941</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.22381939001256</v>
+        <v>7.120862197605028</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78784442917313</v>
+        <v>21.19348654532063</v>
       </c>
       <c r="C6">
-        <v>8.256818809423564</v>
+        <v>14.18313860983168</v>
       </c>
       <c r="D6">
-        <v>5.788151104169619</v>
+        <v>6.187989375159219</v>
       </c>
       <c r="E6">
-        <v>10.09377542979803</v>
+        <v>6.078280346632313</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.19800596628582</v>
+        <v>42.07647507839351</v>
       </c>
       <c r="H6">
-        <v>17.83262579577386</v>
+        <v>12.80032066581416</v>
       </c>
       <c r="I6">
-        <v>27.0234729731628</v>
+        <v>19.73612027148462</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.2231468133556</v>
+        <v>7.109246461622974</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.94199250468943</v>
+        <v>21.73522690137052</v>
       </c>
       <c r="C7">
-        <v>8.433487075327289</v>
+        <v>14.51626385994786</v>
       </c>
       <c r="D7">
-        <v>5.820393090479529</v>
+        <v>6.336290428999615</v>
       </c>
       <c r="E7">
-        <v>10.08550384666888</v>
+        <v>6.062336596023255</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.29319694015868</v>
+        <v>42.72279278823895</v>
       </c>
       <c r="H7">
-        <v>17.82606748735831</v>
+        <v>12.87934064235225</v>
       </c>
       <c r="I7">
-        <v>27.00507340994318</v>
+        <v>19.81756797558003</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.2280050941168</v>
+        <v>7.189954004080104</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.61626008150546</v>
+        <v>23.99981670134961</v>
       </c>
       <c r="C8">
-        <v>9.16884611471629</v>
+        <v>15.9137971689176</v>
       </c>
       <c r="D8">
-        <v>5.964760456301621</v>
+        <v>7.009506531186728</v>
       </c>
       <c r="E8">
-        <v>10.05129867618786</v>
+        <v>5.99675488505997</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.75030409036246</v>
+        <v>45.60116433142342</v>
       </c>
       <c r="H8">
-        <v>17.80754014815012</v>
+        <v>13.25536276768692</v>
       </c>
       <c r="I8">
-        <v>26.94080408797524</v>
+        <v>20.22980990997364</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.2541239691651</v>
+        <v>7.547592420493393</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.90344368590331</v>
+        <v>28.00058647621148</v>
       </c>
       <c r="C9">
-        <v>10.45063307626951</v>
+        <v>18.40037308431485</v>
       </c>
       <c r="D9">
-        <v>6.25265216081317</v>
+        <v>8.207886755123059</v>
       </c>
       <c r="E9">
-        <v>9.992447160648329</v>
+        <v>5.886108750512671</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.77435256021106</v>
+        <v>51.3125793379815</v>
       </c>
       <c r="H9">
-        <v>17.80891445770826</v>
+        <v>14.09543754815839</v>
       </c>
       <c r="I9">
-        <v>26.87632236317329</v>
+        <v>21.24408296138609</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.32196151463589</v>
+        <v>8.250140826810917</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.81680350981256</v>
+        <v>30.6850825718872</v>
       </c>
       <c r="C10">
-        <v>11.29418003057665</v>
+        <v>20.0803650537213</v>
       </c>
       <c r="D10">
-        <v>6.464702499936552</v>
+        <v>9.019037498070274</v>
       </c>
       <c r="E10">
-        <v>9.954198859292001</v>
+        <v>5.816644750871911</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.59878187693874</v>
+        <v>55.53865562164928</v>
       </c>
       <c r="H10">
-        <v>17.83311502538452</v>
+        <v>14.77966992554228</v>
       </c>
       <c r="I10">
-        <v>26.86706312488953</v>
+        <v>22.12903085351435</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.3817150015959</v>
+        <v>8.764557809654649</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.22326111845021</v>
+        <v>31.85431988635829</v>
       </c>
       <c r="C11">
-        <v>11.65660391350637</v>
+        <v>20.81489761928198</v>
       </c>
       <c r="D11">
-        <v>6.560804253061339</v>
+        <v>9.374232019530023</v>
       </c>
       <c r="E11">
-        <v>9.937877201427371</v>
+        <v>5.78784329361915</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>46.98809545913478</v>
+        <v>57.468765141441</v>
       </c>
       <c r="H11">
-        <v>17.84918907721053</v>
+        <v>15.10665267273895</v>
       </c>
       <c r="I11">
-        <v>26.87123460581167</v>
+        <v>22.56510958010445</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.41099529284691</v>
+        <v>8.997978079807829</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.37572717692166</v>
+        <v>32.2899187791101</v>
       </c>
       <c r="C12">
-        <v>11.79078286462864</v>
+        <v>21.08898508143693</v>
       </c>
       <c r="D12">
-        <v>6.597105547934759</v>
+        <v>9.506864958823176</v>
       </c>
       <c r="E12">
-        <v>9.931851220507282</v>
+        <v>5.777362055826572</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>47.13744605004199</v>
+        <v>58.20107065791663</v>
       </c>
       <c r="H12">
-        <v>17.85600531918581</v>
+        <v>15.23285132325504</v>
       </c>
       <c r="I12">
-        <v>26.87402687707463</v>
+        <v>22.73533920971474</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.42237925375544</v>
+        <v>9.086286450475914</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.34295766080341</v>
+        <v>32.19641824146213</v>
       </c>
       <c r="C13">
-        <v>11.76202121221009</v>
+        <v>21.03013257088058</v>
       </c>
       <c r="D13">
-        <v>6.589292024950765</v>
+        <v>9.478381374895701</v>
       </c>
       <c r="E13">
-        <v>9.933142148629139</v>
+        <v>5.779600065820534</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>47.10519713813672</v>
+        <v>58.04328549355863</v>
       </c>
       <c r="H13">
-        <v>17.85450487396097</v>
+        <v>15.20556431444032</v>
       </c>
       <c r="I13">
-        <v>26.87337147852489</v>
+        <v>22.6984458387308</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.41991443562365</v>
+        <v>9.06727111715778</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.23583448250066</v>
+        <v>31.8902986150058</v>
       </c>
       <c r="C14">
-        <v>11.66770426952293</v>
+        <v>20.83752711593013</v>
       </c>
       <c r="D14">
-        <v>6.563792806705206</v>
+        <v>9.385180624191161</v>
       </c>
       <c r="E14">
-        <v>9.93737834205451</v>
+        <v>5.786972330690025</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.00034476568958</v>
+        <v>57.52898148892778</v>
       </c>
       <c r="H14">
-        <v>17.84973523339185</v>
+        <v>15.11698670513067</v>
       </c>
       <c r="I14">
-        <v>26.87143998818945</v>
+        <v>22.57901065139819</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.41192595617859</v>
+        <v>9.005244845331454</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.17002527672738</v>
+        <v>31.70186792885634</v>
       </c>
       <c r="C15">
-        <v>11.60953359295934</v>
+        <v>20.71902811095863</v>
       </c>
       <c r="D15">
-        <v>6.548160923915132</v>
+        <v>9.327852328144321</v>
       </c>
       <c r="E15">
-        <v>9.939993267729067</v>
+        <v>5.791544169638779</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46.93636663469187</v>
+        <v>57.21415242813958</v>
       </c>
       <c r="H15">
-        <v>17.84690868968113</v>
+        <v>15.06304386530982</v>
       </c>
       <c r="I15">
-        <v>26.87041500546374</v>
+        <v>22.50652551753652</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.40707117731037</v>
+        <v>8.967241550739606</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.79004547892821</v>
+        <v>30.6076500314162</v>
       </c>
       <c r="C16">
-        <v>11.27006601169984</v>
+        <v>20.03178096041882</v>
       </c>
       <c r="D16">
-        <v>6.458411431404411</v>
+        <v>8.995556356060616</v>
       </c>
       <c r="E16">
-        <v>9.955287178594457</v>
+        <v>5.81858518372425</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>46.57361585367653</v>
+        <v>55.41269480709678</v>
       </c>
       <c r="H16">
-        <v>17.83216657339867</v>
+        <v>14.75862660299134</v>
       </c>
       <c r="I16">
-        <v>26.86695983671745</v>
+        <v>22.1012295078596</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.37984321980903</v>
+        <v>8.7492911314349</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.55451393074309</v>
+        <v>29.923282867961</v>
       </c>
       <c r="C17">
-        <v>11.05635567635702</v>
+        <v>19.60270762003868</v>
       </c>
       <c r="D17">
-        <v>6.403232626592005</v>
+        <v>8.788245126381319</v>
       </c>
       <c r="E17">
-        <v>9.964945307987067</v>
+        <v>5.835905941053007</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>46.3546477690637</v>
+        <v>54.30968063838883</v>
       </c>
       <c r="H17">
-        <v>17.82442100517164</v>
+        <v>14.57597864409223</v>
       </c>
       <c r="I17">
-        <v>26.8669928054689</v>
+        <v>21.86136586193376</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.36367330951935</v>
+        <v>8.615430199317608</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.41820019289264</v>
+        <v>29.52474276708124</v>
       </c>
       <c r="C18">
-        <v>10.93142909289487</v>
+        <v>19.3531060178986</v>
       </c>
       <c r="D18">
-        <v>6.371463445320893</v>
+        <v>8.667698604099607</v>
       </c>
       <c r="E18">
-        <v>9.970601862630305</v>
+        <v>5.846130205366928</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>46.23005483521194</v>
+        <v>53.6759452595516</v>
       </c>
       <c r="H18">
-        <v>17.82044269914052</v>
+        <v>14.47239595311374</v>
       </c>
       <c r="I18">
-        <v>26.86780051193898</v>
+        <v>21.72653910708818</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.35457065058314</v>
+        <v>8.53838014034875</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.37190690157765</v>
+        <v>29.38895185165793</v>
       </c>
       <c r="C19">
-        <v>10.88878656457537</v>
+        <v>19.26810674134401</v>
       </c>
       <c r="D19">
-        <v>6.360702687702775</v>
+        <v>8.626655970586283</v>
       </c>
       <c r="E19">
-        <v>9.972534508713494</v>
+        <v>5.849636286688872</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.18810575735133</v>
+        <v>53.46148527095279</v>
       </c>
       <c r="H19">
-        <v>17.81917755065855</v>
+        <v>14.43757422280935</v>
       </c>
       <c r="I19">
-        <v>26.86820922173289</v>
+        <v>21.6814197504777</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.35152278937593</v>
+        <v>8.512282788345658</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.5796749754851</v>
+        <v>29.99664100661863</v>
       </c>
       <c r="C20">
-        <v>11.07931312458795</v>
+        <v>19.64867262089026</v>
       </c>
       <c r="D20">
-        <v>6.409110079330377</v>
+        <v>8.810448207859743</v>
       </c>
       <c r="E20">
-        <v>9.96390668566416</v>
+        <v>5.834034863339826</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>46.37781830286102</v>
+        <v>54.42702538524925</v>
       </c>
       <c r="H20">
-        <v>17.8251961837295</v>
+        <v>14.59526876252878</v>
       </c>
       <c r="I20">
-        <v>26.86690760927181</v>
+        <v>21.88657322154057</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.36537418673414</v>
+        <v>8.629685843753199</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.26733966274397</v>
+        <v>31.98040524829901</v>
       </c>
       <c r="C21">
-        <v>11.69549055103409</v>
+        <v>20.89420850400429</v>
       </c>
       <c r="D21">
-        <v>6.571285294347226</v>
+        <v>9.412605769079683</v>
       </c>
       <c r="E21">
-        <v>9.936129873781606</v>
+        <v>5.78479517826479</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.03109121249808</v>
+        <v>57.68000314555938</v>
       </c>
       <c r="H21">
-        <v>17.8511163940686</v>
+        <v>15.1429385165931</v>
       </c>
       <c r="I21">
-        <v>26.87197435242658</v>
+        <v>22.61395100358265</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.41426437515157</v>
+        <v>9.023465605113397</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.70825264988551</v>
+        <v>33.23530903963582</v>
       </c>
       <c r="C22">
-        <v>12.08034629106341</v>
+        <v>21.68466814642473</v>
       </c>
       <c r="D22">
-        <v>6.676733061592759</v>
+        <v>9.795304329967344</v>
       </c>
       <c r="E22">
-        <v>9.918877564378137</v>
+        <v>5.755105908115519</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.46920713869386</v>
+        <v>59.81455031704308</v>
       </c>
       <c r="H22">
-        <v>17.8723078597567</v>
+        <v>15.51480378866926</v>
       </c>
       <c r="I22">
-        <v>26.88235636965407</v>
+        <v>23.11919005924545</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.44794026379009</v>
+        <v>9.280355020891637</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.4737546661529</v>
+        <v>32.56923968119823</v>
       </c>
       <c r="C23">
-        <v>11.87657392640429</v>
+        <v>21.26486511382138</v>
       </c>
       <c r="D23">
-        <v>6.620515501637493</v>
+        <v>9.592002399258007</v>
       </c>
       <c r="E23">
-        <v>9.928003059617046</v>
+        <v>5.770715211872988</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>47.23439793585724</v>
+        <v>58.6743646082998</v>
       </c>
       <c r="H23">
-        <v>17.86060847017551</v>
+        <v>15.31501192664618</v>
       </c>
       <c r="I23">
-        <v>26.87616627122978</v>
+        <v>22.84670302217812</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.42981106584231</v>
+        <v>9.14328564543454</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.56830246975201</v>
+        <v>29.96349166364551</v>
       </c>
       <c r="C24">
-        <v>11.06894048393372</v>
+        <v>19.62790095947356</v>
       </c>
       <c r="D24">
-        <v>6.406453023761191</v>
+        <v>8.800414440857866</v>
       </c>
       <c r="E24">
-        <v>9.96437592295862</v>
+        <v>5.834879949700442</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>46.36733886214562</v>
+        <v>54.3739725938112</v>
       </c>
       <c r="H24">
-        <v>17.82484424692748</v>
+        <v>14.58654327282528</v>
       </c>
       <c r="I24">
-        <v>26.866943670234</v>
+        <v>21.87516741982638</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.3646046165901</v>
+        <v>8.623241152211314</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.56016632932303</v>
+        <v>26.96407370312126</v>
       </c>
       <c r="C25">
-        <v>10.12110169025678</v>
+        <v>17.75413616055336</v>
       </c>
       <c r="D25">
-        <v>6.174507204825712</v>
+        <v>7.89624729480925</v>
       </c>
       <c r="E25">
-        <v>10.00749005820099</v>
+        <v>5.914034857832781</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>45.48421609408025</v>
+        <v>49.7620248580513</v>
       </c>
       <c r="H25">
-        <v>17.80448205327568</v>
+        <v>13.85674620544678</v>
       </c>
       <c r="I25">
-        <v>26.88711210019193</v>
+        <v>20.94617999322751</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.30185120654788</v>
+        <v>8.060261143350093</v>
       </c>
       <c r="M25">
         <v>0</v>
